--- a/Agent3.xlsx
+++ b/Agent3.xlsx
@@ -1,25 +1,52 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sanzk\OneDrive\Desktop\Rutgers\520\GhostMaze\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2567C39-47B9-4008-9D62-9C78F7570B94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$1</definedName>
+  </definedNames>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>statusCode</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>noOfGhosts</t>
+  </si>
+  <si>
+    <t>Steps</t>
+  </si>
+  <si>
+    <t>safeSimulation</t>
+  </si>
+  <si>
+    <t>riskySimulation</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -330,13 +357,87 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.33203125" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="14.21875" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>200</v>
+      </c>
+      <c r="B2">
+        <v>1131</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>200</v>
+      </c>
+      <c r="B3">
+        <v>1057</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>200</v>
+      </c>
+      <c r="B4">
+        <v>993</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>200</v>
+      </c>
+      <c r="B5">
+        <v>1491</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:F1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Agent3.xlsx
+++ b/Agent3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sanzk\OneDrive\Desktop\Rutgers\520\GhostMaze\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2567C39-47B9-4008-9D62-9C78F7570B94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65392404-0B12-4AFE-B170-323A6901E5D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,19 +28,19 @@
     <t>statusCode</t>
   </si>
   <si>
+    <t>Steps</t>
+  </si>
+  <si>
+    <t>safeSimulation</t>
+  </si>
+  <si>
+    <t>riskySimulation</t>
+  </si>
+  <si>
     <t>time</t>
   </si>
   <si>
     <t>noOfGhosts</t>
-  </si>
-  <si>
-    <t>Steps</t>
-  </si>
-  <si>
-    <t>safeSimulation</t>
-  </si>
-  <si>
-    <t>riskySimulation</t>
   </si>
 </sst>
 </file>
@@ -358,10 +358,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -377,67 +377,23 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
       <c r="F1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>200</v>
-      </c>
-      <c r="B2">
-        <v>1131</v>
-      </c>
-      <c r="F2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>200</v>
-      </c>
-      <c r="B3">
-        <v>1057</v>
-      </c>
-      <c r="F3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>200</v>
-      </c>
-      <c r="B4">
-        <v>993</v>
-      </c>
-      <c r="F4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>200</v>
-      </c>
-      <c r="B5">
-        <v>1491</v>
-      </c>
-      <c r="F5">
         <v>5</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:F1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Agent3.xlsx
+++ b/Agent3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sanzk\OneDrive\Desktop\Rutgers\520\GhostMaze\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65392404-0B12-4AFE-B170-323A6901E5D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FA3CD7D-575F-4CE2-B082-E6A0BFAAA8F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$71</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t>statusCode</t>
   </si>
@@ -31,16 +31,220 @@
     <t>Steps</t>
   </si>
   <si>
-    <t>safeSimulation</t>
-  </si>
-  <si>
-    <t>riskySimulation</t>
+    <t>closeGhostCount</t>
   </si>
   <si>
     <t>time</t>
   </si>
   <si>
     <t>noOfGhosts</t>
+  </si>
+  <si>
+    <t>17.8354573</t>
+  </si>
+  <si>
+    <t>47.87487540000001</t>
+  </si>
+  <si>
+    <t>64.7480645</t>
+  </si>
+  <si>
+    <t>18.84433759999999</t>
+  </si>
+  <si>
+    <t>19.85169590000001</t>
+  </si>
+  <si>
+    <t>19.1804952</t>
+  </si>
+  <si>
+    <t>17.433644899999997</t>
+  </si>
+  <si>
+    <t>1296.061104</t>
+  </si>
+  <si>
+    <t>365.9999608999999</t>
+  </si>
+  <si>
+    <t>379.6136716999997</t>
+  </si>
+  <si>
+    <t>63.757128</t>
+  </si>
+  <si>
+    <t>84.1677529</t>
+  </si>
+  <si>
+    <t>212.69278910000003</t>
+  </si>
+  <si>
+    <t>19.73645590000001</t>
+  </si>
+  <si>
+    <t>20.78396520000001</t>
+  </si>
+  <si>
+    <t>65.3898377</t>
+  </si>
+  <si>
+    <t>61.1585494</t>
+  </si>
+  <si>
+    <t>305.5096302</t>
+  </si>
+  <si>
+    <t>395.34679120000004</t>
+  </si>
+  <si>
+    <t>244.67123090000007</t>
+  </si>
+  <si>
+    <t>315.6407928</t>
+  </si>
+  <si>
+    <t>43.2534225</t>
+  </si>
+  <si>
+    <t>232.90002330000004</t>
+  </si>
+  <si>
+    <t>409.0525582</t>
+  </si>
+  <si>
+    <t>551.6128176999999</t>
+  </si>
+  <si>
+    <t>504.95546820000004</t>
+  </si>
+  <si>
+    <t>310.5829561999999</t>
+  </si>
+  <si>
+    <t>283.2757729</t>
+  </si>
+  <si>
+    <t>580.3589790000001</t>
+  </si>
+  <si>
+    <t>538.5804695000002</t>
+  </si>
+  <si>
+    <t>763.8852577000002</t>
+  </si>
+  <si>
+    <t>843.4741512</t>
+  </si>
+  <si>
+    <t>210.78832609999972</t>
+  </si>
+  <si>
+    <t>98.96447369999987</t>
+  </si>
+  <si>
+    <t>542.9845339000003</t>
+  </si>
+  <si>
+    <t>70.70768709999993</t>
+  </si>
+  <si>
+    <t>1057.1393976</t>
+  </si>
+  <si>
+    <t>367.70458119999967</t>
+  </si>
+  <si>
+    <t>363.78861029999916</t>
+  </si>
+  <si>
+    <t>399.33313439999984</t>
+  </si>
+  <si>
+    <t>309.23441230000026</t>
+  </si>
+  <si>
+    <t>427.7282651000005</t>
+  </si>
+  <si>
+    <t>731.3223177</t>
+  </si>
+  <si>
+    <t>302.64730549999877</t>
+  </si>
+  <si>
+    <t>574.8156978999996</t>
+  </si>
+  <si>
+    <t>83.20956540000043</t>
+  </si>
+  <si>
+    <t>429.74193059999925</t>
+  </si>
+  <si>
+    <t>826.2963548000007</t>
+  </si>
+  <si>
+    <t>489.7307689999998</t>
+  </si>
+  <si>
+    <t>452.42250989999957</t>
+  </si>
+  <si>
+    <t>1363.8631744999984</t>
+  </si>
+  <si>
+    <t>600.5814644000002</t>
+  </si>
+  <si>
+    <t>1783.5549335000014</t>
+  </si>
+  <si>
+    <t>1015.7801618999983</t>
+  </si>
+  <si>
+    <t>543.5110041000007</t>
+  </si>
+  <si>
+    <t>383.9075350999992</t>
+  </si>
+  <si>
+    <t>605.4220184000005</t>
+  </si>
+  <si>
+    <t>1299.4864068999996</t>
+  </si>
+  <si>
+    <t>11.08371580000312</t>
+  </si>
+  <si>
+    <t>1468.6185393999986</t>
+  </si>
+  <si>
+    <t>1543.6706634000002</t>
+  </si>
+  <si>
+    <t>202.1497844000005</t>
+  </si>
+  <si>
+    <t>396.9838628999969</t>
+  </si>
+  <si>
+    <t>355.99358649999704</t>
+  </si>
+  <si>
+    <t>1288.7416722999988</t>
+  </si>
+  <si>
+    <t>197.34283750000031</t>
+  </si>
+  <si>
+    <t>280.9337989000014</t>
+  </si>
+  <si>
+    <t>350.4942544999976</t>
+  </si>
+  <si>
+    <t>439.2227450999999</t>
   </si>
 </sst>
 </file>
@@ -358,21 +562,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:E71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.33203125" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" customWidth="1"/>
     <col min="4" max="4" width="14.21875" customWidth="1"/>
-    <col min="6" max="6" width="10.5546875" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -388,12 +592,1199 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>200</v>
+      </c>
+      <c r="B2">
+        <v>102</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
         <v>5</v>
       </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>200</v>
+      </c>
+      <c r="B3">
+        <v>150</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>200</v>
+      </c>
+      <c r="B4">
+        <v>186</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>200</v>
+      </c>
+      <c r="B5">
+        <v>102</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>200</v>
+      </c>
+      <c r="B6">
+        <v>100</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>200</v>
+      </c>
+      <c r="B7">
+        <v>100</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>200</v>
+      </c>
+      <c r="B8">
+        <v>100</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>404</v>
+      </c>
+      <c r="B9">
+        <v>1500</v>
+      </c>
+      <c r="C9">
+        <v>39</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>200</v>
+      </c>
+      <c r="B10">
+        <v>550</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>200</v>
+      </c>
+      <c r="B11">
+        <v>520</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>200</v>
+      </c>
+      <c r="B12">
+        <v>218</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>400</v>
+      </c>
+      <c r="B13">
+        <v>152</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>200</v>
+      </c>
+      <c r="B14">
+        <v>464</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>200</v>
+      </c>
+      <c r="B15">
+        <v>104</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>200</v>
+      </c>
+      <c r="B16">
+        <v>110</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>200</v>
+      </c>
+      <c r="B17">
+        <v>238</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>200</v>
+      </c>
+      <c r="B18">
+        <v>190</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>200</v>
+      </c>
+      <c r="B19">
+        <v>1023</v>
+      </c>
+      <c r="C19">
+        <v>10</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>400</v>
+      </c>
+      <c r="B20">
+        <v>1022</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>200</v>
+      </c>
+      <c r="B21">
+        <v>802</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>200</v>
+      </c>
+      <c r="B22">
+        <v>867</v>
+      </c>
+      <c r="C22">
+        <v>65</v>
+      </c>
+      <c r="D22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>200</v>
+      </c>
+      <c r="B23">
+        <v>158</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>200</v>
+      </c>
+      <c r="B24">
+        <v>541</v>
+      </c>
+      <c r="C24">
+        <v>7</v>
+      </c>
+      <c r="D24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>200</v>
+      </c>
+      <c r="B25">
+        <v>809</v>
+      </c>
+      <c r="C25">
+        <v>46</v>
+      </c>
+      <c r="D25" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>200</v>
+      </c>
+      <c r="B26">
+        <v>1258</v>
+      </c>
+      <c r="C26">
+        <v>43</v>
+      </c>
+      <c r="D26" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>200</v>
+      </c>
+      <c r="B27">
+        <v>1146</v>
+      </c>
+      <c r="C27">
+        <v>50</v>
+      </c>
+      <c r="D27" t="s">
+        <v>30</v>
+      </c>
+      <c r="E27">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>200</v>
+      </c>
+      <c r="B28">
+        <v>758</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28" t="s">
+        <v>31</v>
+      </c>
+      <c r="E28">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>200</v>
+      </c>
+      <c r="B29">
+        <v>670</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29" t="s">
+        <v>32</v>
+      </c>
+      <c r="E29">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>404</v>
+      </c>
+      <c r="B30">
+        <v>1500</v>
+      </c>
+      <c r="C30">
+        <v>15</v>
+      </c>
+      <c r="D30" t="s">
+        <v>33</v>
+      </c>
+      <c r="E30">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>200</v>
+      </c>
+      <c r="B31">
+        <v>927</v>
+      </c>
+      <c r="C31">
+        <v>32</v>
+      </c>
+      <c r="D31" t="s">
+        <v>34</v>
+      </c>
+      <c r="E31">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>404</v>
+      </c>
+      <c r="B32">
+        <v>1500</v>
+      </c>
+      <c r="C32">
+        <v>39</v>
+      </c>
+      <c r="D32" t="s">
+        <v>35</v>
+      </c>
+      <c r="E32">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>404</v>
+      </c>
+      <c r="B33">
+        <v>1500</v>
+      </c>
+      <c r="C33">
+        <v>64</v>
+      </c>
+      <c r="D33" t="s">
+        <v>36</v>
+      </c>
+      <c r="E33">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>200</v>
+      </c>
+      <c r="B34">
+        <v>568</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34" t="s">
+        <v>37</v>
+      </c>
+      <c r="E34">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>400</v>
+      </c>
+      <c r="B35">
+        <v>156</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35" t="s">
+        <v>38</v>
+      </c>
+      <c r="E35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>200</v>
+      </c>
+      <c r="B36">
+        <v>1129</v>
+      </c>
+      <c r="C36">
+        <v>11</v>
+      </c>
+      <c r="D36" t="s">
+        <v>39</v>
+      </c>
+      <c r="E36">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>400</v>
+      </c>
+      <c r="B37">
+        <v>95</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37" t="s">
+        <v>40</v>
+      </c>
+      <c r="E37">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>404</v>
+      </c>
+      <c r="B38">
+        <v>1500</v>
+      </c>
+      <c r="C38">
+        <v>84</v>
+      </c>
+      <c r="D38" t="s">
+        <v>41</v>
+      </c>
+      <c r="E38">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>200</v>
+      </c>
+      <c r="B39">
+        <v>887</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39" t="s">
+        <v>42</v>
+      </c>
+      <c r="E39">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>200</v>
+      </c>
+      <c r="B40">
+        <v>861</v>
+      </c>
+      <c r="C40">
+        <v>6</v>
+      </c>
+      <c r="D40" t="s">
+        <v>43</v>
+      </c>
+      <c r="E40">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>400</v>
+      </c>
+      <c r="B41">
+        <v>804</v>
+      </c>
+      <c r="C41">
+        <v>8</v>
+      </c>
+      <c r="D41" t="s">
+        <v>44</v>
+      </c>
+      <c r="E41">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>400</v>
+      </c>
+      <c r="B42">
+        <v>302</v>
+      </c>
+      <c r="C42">
+        <v>19</v>
+      </c>
+      <c r="D42" t="s">
+        <v>45</v>
+      </c>
+      <c r="E42">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>400</v>
+      </c>
+      <c r="B43">
+        <v>572</v>
+      </c>
+      <c r="C43">
+        <v>14</v>
+      </c>
+      <c r="D43" t="s">
+        <v>46</v>
+      </c>
+      <c r="E43">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>400</v>
+      </c>
+      <c r="B44">
+        <v>905</v>
+      </c>
+      <c r="C44">
+        <v>53</v>
+      </c>
+      <c r="D44" t="s">
+        <v>47</v>
+      </c>
+      <c r="E44">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>400</v>
+      </c>
+      <c r="B45">
+        <v>373</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45" t="s">
+        <v>48</v>
+      </c>
+      <c r="E45">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>400</v>
+      </c>
+      <c r="B46">
+        <v>540</v>
+      </c>
+      <c r="C46">
+        <v>166</v>
+      </c>
+      <c r="D46" t="s">
+        <v>49</v>
+      </c>
+      <c r="E46">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>400</v>
+      </c>
+      <c r="B47">
+        <v>75</v>
+      </c>
+      <c r="C47">
+        <v>5</v>
+      </c>
+      <c r="D47" t="s">
+        <v>50</v>
+      </c>
+      <c r="E47">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>200</v>
+      </c>
+      <c r="B48">
+        <v>700</v>
+      </c>
+      <c r="C48">
+        <v>22</v>
+      </c>
+      <c r="D48" t="s">
+        <v>51</v>
+      </c>
+      <c r="E48">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>200</v>
+      </c>
+      <c r="B49">
+        <v>1224</v>
+      </c>
+      <c r="C49">
+        <v>31</v>
+      </c>
+      <c r="D49" t="s">
+        <v>52</v>
+      </c>
+      <c r="E49">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>400</v>
+      </c>
+      <c r="B50">
+        <v>468</v>
+      </c>
+      <c r="C50">
+        <v>60</v>
+      </c>
+      <c r="D50" t="s">
+        <v>53</v>
+      </c>
+      <c r="E50">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>400</v>
+      </c>
+      <c r="B51">
+        <v>567</v>
+      </c>
+      <c r="C51">
+        <v>99</v>
+      </c>
+      <c r="D51" t="s">
+        <v>54</v>
+      </c>
+      <c r="E51">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>404</v>
+      </c>
+      <c r="B52">
+        <v>1500</v>
+      </c>
+      <c r="C52">
+        <v>248</v>
+      </c>
+      <c r="D52" t="s">
+        <v>55</v>
+      </c>
+      <c r="E52">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>400</v>
+      </c>
+      <c r="B53">
+        <v>953</v>
+      </c>
+      <c r="C53">
+        <v>39</v>
+      </c>
+      <c r="D53" t="s">
+        <v>56</v>
+      </c>
+      <c r="E53">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>404</v>
+      </c>
+      <c r="B54">
+        <v>1500</v>
+      </c>
+      <c r="C54">
+        <v>327</v>
+      </c>
+      <c r="D54" t="s">
+        <v>57</v>
+      </c>
+      <c r="E54">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>200</v>
+      </c>
+      <c r="B55">
+        <v>1411</v>
+      </c>
+      <c r="C55">
+        <v>82</v>
+      </c>
+      <c r="D55" t="s">
+        <v>58</v>
+      </c>
+      <c r="E55">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>400</v>
+      </c>
+      <c r="B56">
+        <v>537</v>
+      </c>
+      <c r="C56">
+        <v>58</v>
+      </c>
+      <c r="D56" t="s">
+        <v>59</v>
+      </c>
+      <c r="E56">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>400</v>
+      </c>
+      <c r="B57">
+        <v>337</v>
+      </c>
+      <c r="C57">
+        <v>58</v>
+      </c>
+      <c r="D57" t="s">
+        <v>60</v>
+      </c>
+      <c r="E57">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>400</v>
+      </c>
+      <c r="B58">
+        <v>638</v>
+      </c>
+      <c r="C58">
+        <v>25</v>
+      </c>
+      <c r="D58" t="s">
+        <v>61</v>
+      </c>
+      <c r="E58">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>404</v>
+      </c>
+      <c r="B59">
+        <v>1500</v>
+      </c>
+      <c r="C59">
+        <v>163</v>
+      </c>
+      <c r="D59" t="s">
+        <v>62</v>
+      </c>
+      <c r="E59">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>400</v>
+      </c>
+      <c r="B60">
+        <v>13</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60" t="s">
+        <v>63</v>
+      </c>
+      <c r="E60">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>404</v>
+      </c>
+      <c r="B61">
+        <v>1500</v>
+      </c>
+      <c r="C61">
+        <v>254</v>
+      </c>
+      <c r="D61" t="s">
+        <v>64</v>
+      </c>
+      <c r="E61">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>404</v>
+      </c>
+      <c r="B62">
+        <v>1500</v>
+      </c>
+      <c r="C62">
+        <v>377</v>
+      </c>
+      <c r="D62" t="s">
+        <v>65</v>
+      </c>
+      <c r="E62">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>400</v>
+      </c>
+      <c r="B63">
+        <v>184</v>
+      </c>
+      <c r="C63">
+        <v>41</v>
+      </c>
+      <c r="D63" t="s">
+        <v>66</v>
+      </c>
+      <c r="E63">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>400</v>
+      </c>
+      <c r="B64">
+        <v>412</v>
+      </c>
+      <c r="C64">
+        <v>67</v>
+      </c>
+      <c r="D64" t="s">
+        <v>67</v>
+      </c>
+      <c r="E64">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>400</v>
+      </c>
+      <c r="B65">
+        <v>426</v>
+      </c>
+      <c r="C65">
+        <v>35</v>
+      </c>
+      <c r="D65" t="s">
+        <v>68</v>
+      </c>
+      <c r="E65">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>404</v>
+      </c>
+      <c r="B66">
+        <v>1500</v>
+      </c>
+      <c r="C66">
+        <v>248</v>
+      </c>
+      <c r="D66" t="s">
+        <v>69</v>
+      </c>
+      <c r="E66">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>400</v>
+      </c>
+      <c r="B67">
+        <v>163</v>
+      </c>
+      <c r="C67">
+        <v>26</v>
+      </c>
+      <c r="D67" t="s">
+        <v>70</v>
+      </c>
+      <c r="E67">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>400</v>
+      </c>
+      <c r="B68">
+        <v>233</v>
+      </c>
+      <c r="C68">
+        <v>98</v>
+      </c>
+      <c r="D68" t="s">
+        <v>71</v>
+      </c>
+      <c r="E68">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>400</v>
+      </c>
+      <c r="B69">
+        <v>328</v>
+      </c>
+      <c r="C69">
+        <v>52</v>
+      </c>
+      <c r="D69" t="s">
+        <v>72</v>
+      </c>
+      <c r="E69">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>404</v>
+      </c>
+      <c r="B70">
+        <v>1500</v>
+      </c>
+      <c r="C70">
+        <v>69</v>
+      </c>
+      <c r="D70">
+        <v>1483.6706634345301</v>
+      </c>
+      <c r="E70">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>400</v>
+      </c>
+      <c r="B71">
+        <v>375</v>
+      </c>
+      <c r="C71">
+        <v>82</v>
+      </c>
+      <c r="D71" t="s">
+        <v>73</v>
+      </c>
+      <c r="E71">
+        <v>23</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:E71" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Agent3.xlsx
+++ b/Agent3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sanzk\OneDrive\Desktop\Rutgers\520\GhostMaze\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FA3CD7D-575F-4CE2-B082-E6A0BFAAA8F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E7C476E-0001-49BF-8B7D-C741AEC7A8A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$71</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$151</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="154">
   <si>
     <t>statusCode</t>
   </si>
@@ -245,6 +245,246 @@
   </si>
   <si>
     <t>439.2227450999999</t>
+  </si>
+  <si>
+    <t>894.2262643</t>
+  </si>
+  <si>
+    <t>776.6851841999999</t>
+  </si>
+  <si>
+    <t>524.1324508999999</t>
+  </si>
+  <si>
+    <t>229.19262619999972</t>
+  </si>
+  <si>
+    <t>784.1384306</t>
+  </si>
+  <si>
+    <t>871.3272317999999</t>
+  </si>
+  <si>
+    <t>949.0314621999996</t>
+  </si>
+  <si>
+    <t>495.2902816000005</t>
+  </si>
+  <si>
+    <t>163.6811232</t>
+  </si>
+  <si>
+    <t>911.0710324000001</t>
+  </si>
+  <si>
+    <t>32.8505982</t>
+  </si>
+  <si>
+    <t>1248.3544041999999</t>
+  </si>
+  <si>
+    <t>958.4023152000002</t>
+  </si>
+  <si>
+    <t>973.9065066000003</t>
+  </si>
+  <si>
+    <t>53.08033660000001</t>
+  </si>
+  <si>
+    <t>61.9772582999999</t>
+  </si>
+  <si>
+    <t>391.1763277</t>
+  </si>
+  <si>
+    <t>970.2416561000005</t>
+  </si>
+  <si>
+    <t>399.5134033000004</t>
+  </si>
+  <si>
+    <t>252.66655940000055</t>
+  </si>
+  <si>
+    <t>1308.1416989</t>
+  </si>
+  <si>
+    <t>818.3557025</t>
+  </si>
+  <si>
+    <t>1254.4969443999998</t>
+  </si>
+  <si>
+    <t>1085.9651747000007</t>
+  </si>
+  <si>
+    <t>617.7732083999999</t>
+  </si>
+  <si>
+    <t>44.32929820000027</t>
+  </si>
+  <si>
+    <t>573.3341144999995</t>
+  </si>
+  <si>
+    <t>477.3034719999996</t>
+  </si>
+  <si>
+    <t>664.485695899999</t>
+  </si>
+  <si>
+    <t>1010.5985849000008</t>
+  </si>
+  <si>
+    <t>223.15432370000002</t>
+  </si>
+  <si>
+    <t>166.1500424</t>
+  </si>
+  <si>
+    <t>1126.9966356</t>
+  </si>
+  <si>
+    <t>88.99713840000004</t>
+  </si>
+  <si>
+    <t>220.0708967999999</t>
+  </si>
+  <si>
+    <t>124.25351809999984</t>
+  </si>
+  <si>
+    <t>740.4771370000001</t>
+  </si>
+  <si>
+    <t>1118.0624811000002</t>
+  </si>
+  <si>
+    <t>270.0916686999999</t>
+  </si>
+  <si>
+    <t>396.90813579999985</t>
+  </si>
+  <si>
+    <t>1701.2387136999996</t>
+  </si>
+  <si>
+    <t>1320.9521378999998</t>
+  </si>
+  <si>
+    <t>479.27068039999995</t>
+  </si>
+  <si>
+    <t>1570.395844400001</t>
+  </si>
+  <si>
+    <t>349.9193543000001</t>
+  </si>
+  <si>
+    <t>141.66884299999947</t>
+  </si>
+  <si>
+    <t>442.5881453000002</t>
+  </si>
+  <si>
+    <t>484.1762338000008</t>
+  </si>
+  <si>
+    <t>443.1625239999994</t>
+  </si>
+  <si>
+    <t>900.7051566000009</t>
+  </si>
+  <si>
+    <t>423.5955316999989</t>
+  </si>
+  <si>
+    <t>340.5632624000009</t>
+  </si>
+  <si>
+    <t>208.31160789999922</t>
+  </si>
+  <si>
+    <t>1844.0251712999998</t>
+  </si>
+  <si>
+    <t>234.8294683999993</t>
+  </si>
+  <si>
+    <t>513.7585660999994</t>
+  </si>
+  <si>
+    <t>175.12302629999976</t>
+  </si>
+  <si>
+    <t>450.9914246999997</t>
+  </si>
+  <si>
+    <t>99.89401910000015</t>
+  </si>
+  <si>
+    <t>1208.3044851000013</t>
+  </si>
+  <si>
+    <t>573.7848822999986</t>
+  </si>
+  <si>
+    <t>1057.9887969999982</t>
+  </si>
+  <si>
+    <t>538.9578918000007</t>
+  </si>
+  <si>
+    <t>590.0014733999997</t>
+  </si>
+  <si>
+    <t>605.5510728000008</t>
+  </si>
+  <si>
+    <t>226.3556957999972</t>
+  </si>
+  <si>
+    <t>292.21025109999755</t>
+  </si>
+  <si>
+    <t>537.5164843999992</t>
+  </si>
+  <si>
+    <t>789.0713258999967</t>
+  </si>
+  <si>
+    <t>685.9330628999996</t>
+  </si>
+  <si>
+    <t>198.74365509999916</t>
+  </si>
+  <si>
+    <t>639.4813915999985</t>
+  </si>
+  <si>
+    <t>161.62614929999836</t>
+  </si>
+  <si>
+    <t>371.28508710000096</t>
+  </si>
+  <si>
+    <t>408.64938659999825</t>
+  </si>
+  <si>
+    <t>45.877223100000265</t>
+  </si>
+  <si>
+    <t>32.79414750000069</t>
+  </si>
+  <si>
+    <t>1332.0376729000018</t>
+  </si>
+  <si>
+    <t>537.0197936000004</t>
+  </si>
+  <si>
+    <t>933.8411325000015</t>
   </si>
 </sst>
 </file>
@@ -562,10 +802,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E71"/>
+  <dimension ref="A1:E151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="B72" sqref="B72"/>
+    <sheetView tabSelected="1" topLeftCell="A140" workbookViewId="0">
+      <selection activeCell="E151" sqref="E151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -901,10 +1141,10 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="B20">
-        <v>1022</v>
+        <v>1500</v>
       </c>
       <c r="C20">
         <v>2</v>
@@ -1783,8 +2023,1368 @@
         <v>23</v>
       </c>
     </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>404</v>
+      </c>
+      <c r="B72">
+        <v>800</v>
+      </c>
+      <c r="C72">
+        <v>177</v>
+      </c>
+      <c r="D72" t="s">
+        <v>74</v>
+      </c>
+      <c r="E72">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>400</v>
+      </c>
+      <c r="B73">
+        <v>533</v>
+      </c>
+      <c r="C73">
+        <v>219</v>
+      </c>
+      <c r="D73" t="s">
+        <v>75</v>
+      </c>
+      <c r="E73">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>400</v>
+      </c>
+      <c r="B74">
+        <v>484</v>
+      </c>
+      <c r="C74">
+        <v>36</v>
+      </c>
+      <c r="D74" t="s">
+        <v>76</v>
+      </c>
+      <c r="E74">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>400</v>
+      </c>
+      <c r="B75">
+        <v>187</v>
+      </c>
+      <c r="C75">
+        <v>48</v>
+      </c>
+      <c r="D75" t="s">
+        <v>77</v>
+      </c>
+      <c r="E75">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>404</v>
+      </c>
+      <c r="B76">
+        <v>800</v>
+      </c>
+      <c r="C76">
+        <v>96</v>
+      </c>
+      <c r="D76" t="s">
+        <v>78</v>
+      </c>
+      <c r="E76">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>404</v>
+      </c>
+      <c r="B77">
+        <v>800</v>
+      </c>
+      <c r="C77">
+        <v>139</v>
+      </c>
+      <c r="D77" t="s">
+        <v>79</v>
+      </c>
+      <c r="E77">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>404</v>
+      </c>
+      <c r="B78">
+        <v>800</v>
+      </c>
+      <c r="C78">
+        <v>225</v>
+      </c>
+      <c r="D78" t="s">
+        <v>80</v>
+      </c>
+      <c r="E78">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>400</v>
+      </c>
+      <c r="B79">
+        <v>371</v>
+      </c>
+      <c r="C79">
+        <v>75</v>
+      </c>
+      <c r="D79" t="s">
+        <v>81</v>
+      </c>
+      <c r="E79">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>400</v>
+      </c>
+      <c r="B80">
+        <v>140</v>
+      </c>
+      <c r="C80">
+        <v>59</v>
+      </c>
+      <c r="D80" t="s">
+        <v>82</v>
+      </c>
+      <c r="E80">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>404</v>
+      </c>
+      <c r="B81">
+        <v>800</v>
+      </c>
+      <c r="C81">
+        <v>89</v>
+      </c>
+      <c r="D81" t="s">
+        <v>83</v>
+      </c>
+      <c r="E81">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>400</v>
+      </c>
+      <c r="B82">
+        <v>27</v>
+      </c>
+      <c r="C82">
+        <v>5</v>
+      </c>
+      <c r="D82" t="s">
+        <v>84</v>
+      </c>
+      <c r="E82">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>404</v>
+      </c>
+      <c r="B83">
+        <v>800</v>
+      </c>
+      <c r="C83">
+        <v>531</v>
+      </c>
+      <c r="D83" t="s">
+        <v>85</v>
+      </c>
+      <c r="E83">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>404</v>
+      </c>
+      <c r="B84">
+        <v>800</v>
+      </c>
+      <c r="C84">
+        <v>236</v>
+      </c>
+      <c r="D84" t="s">
+        <v>86</v>
+      </c>
+      <c r="E84">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>404</v>
+      </c>
+      <c r="B85">
+        <v>800</v>
+      </c>
+      <c r="C85">
+        <v>226</v>
+      </c>
+      <c r="D85" t="s">
+        <v>87</v>
+      </c>
+      <c r="E85">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>400</v>
+      </c>
+      <c r="B86">
+        <v>62</v>
+      </c>
+      <c r="C86">
+        <v>37</v>
+      </c>
+      <c r="D86" t="s">
+        <v>88</v>
+      </c>
+      <c r="E86">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>400</v>
+      </c>
+      <c r="B87">
+        <v>50</v>
+      </c>
+      <c r="C87">
+        <v>21</v>
+      </c>
+      <c r="D87" t="s">
+        <v>89</v>
+      </c>
+      <c r="E87">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>400</v>
+      </c>
+      <c r="B88">
+        <v>253</v>
+      </c>
+      <c r="C88">
+        <v>159</v>
+      </c>
+      <c r="D88" t="s">
+        <v>90</v>
+      </c>
+      <c r="E88">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>404</v>
+      </c>
+      <c r="B89">
+        <v>800</v>
+      </c>
+      <c r="C89">
+        <v>188</v>
+      </c>
+      <c r="D89" t="s">
+        <v>91</v>
+      </c>
+      <c r="E89">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>400</v>
+      </c>
+      <c r="B90">
+        <v>297</v>
+      </c>
+      <c r="C90">
+        <v>83</v>
+      </c>
+      <c r="D90" t="s">
+        <v>92</v>
+      </c>
+      <c r="E90">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>400</v>
+      </c>
+      <c r="B91">
+        <v>182</v>
+      </c>
+      <c r="C91">
+        <v>101</v>
+      </c>
+      <c r="D91" t="s">
+        <v>93</v>
+      </c>
+      <c r="E91">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>404</v>
+      </c>
+      <c r="B92">
+        <v>800</v>
+      </c>
+      <c r="C92">
+        <v>270</v>
+      </c>
+      <c r="D92" t="s">
+        <v>94</v>
+      </c>
+      <c r="E92">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>404</v>
+      </c>
+      <c r="B93">
+        <v>800</v>
+      </c>
+      <c r="C93">
+        <v>209</v>
+      </c>
+      <c r="D93" t="s">
+        <v>95</v>
+      </c>
+      <c r="E93">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>404</v>
+      </c>
+      <c r="B94">
+        <v>800</v>
+      </c>
+      <c r="C94">
+        <v>376</v>
+      </c>
+      <c r="D94" t="s">
+        <v>96</v>
+      </c>
+      <c r="E94">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>404</v>
+      </c>
+      <c r="B95">
+        <v>800</v>
+      </c>
+      <c r="C95">
+        <v>309</v>
+      </c>
+      <c r="D95" t="s">
+        <v>97</v>
+      </c>
+      <c r="E95">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>400</v>
+      </c>
+      <c r="B96">
+        <v>423</v>
+      </c>
+      <c r="C96">
+        <v>197</v>
+      </c>
+      <c r="D96" t="s">
+        <v>98</v>
+      </c>
+      <c r="E96">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>400</v>
+      </c>
+      <c r="B97">
+        <v>37</v>
+      </c>
+      <c r="C97">
+        <v>4</v>
+      </c>
+      <c r="D97" t="s">
+        <v>99</v>
+      </c>
+      <c r="E97">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>400</v>
+      </c>
+      <c r="B98">
+        <v>321</v>
+      </c>
+      <c r="C98">
+        <v>221</v>
+      </c>
+      <c r="D98" t="s">
+        <v>100</v>
+      </c>
+      <c r="E98">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>400</v>
+      </c>
+      <c r="B99">
+        <v>283</v>
+      </c>
+      <c r="C99">
+        <v>181</v>
+      </c>
+      <c r="D99" t="s">
+        <v>101</v>
+      </c>
+      <c r="E99">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>400</v>
+      </c>
+      <c r="B100">
+        <v>582</v>
+      </c>
+      <c r="C100">
+        <v>105</v>
+      </c>
+      <c r="D100" t="s">
+        <v>102</v>
+      </c>
+      <c r="E100">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>404</v>
+      </c>
+      <c r="B101">
+        <v>800</v>
+      </c>
+      <c r="C101">
+        <v>270</v>
+      </c>
+      <c r="D101" t="s">
+        <v>103</v>
+      </c>
+      <c r="E101">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>400</v>
+      </c>
+      <c r="B102">
+        <v>160</v>
+      </c>
+      <c r="C102">
+        <v>49</v>
+      </c>
+      <c r="D102" t="s">
+        <v>104</v>
+      </c>
+      <c r="E102">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>400</v>
+      </c>
+      <c r="B103">
+        <v>147</v>
+      </c>
+      <c r="C103">
+        <v>68</v>
+      </c>
+      <c r="D103" t="s">
+        <v>105</v>
+      </c>
+      <c r="E103">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>404</v>
+      </c>
+      <c r="B104">
+        <v>800</v>
+      </c>
+      <c r="C104">
+        <v>408</v>
+      </c>
+      <c r="D104" t="s">
+        <v>106</v>
+      </c>
+      <c r="E104">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>400</v>
+      </c>
+      <c r="B105">
+        <v>59</v>
+      </c>
+      <c r="C105">
+        <v>26</v>
+      </c>
+      <c r="D105" t="s">
+        <v>107</v>
+      </c>
+      <c r="E105">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>400</v>
+      </c>
+      <c r="B106">
+        <v>104</v>
+      </c>
+      <c r="C106">
+        <v>88</v>
+      </c>
+      <c r="D106" t="s">
+        <v>108</v>
+      </c>
+      <c r="E106">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>400</v>
+      </c>
+      <c r="B107">
+        <v>114</v>
+      </c>
+      <c r="C107">
+        <v>71</v>
+      </c>
+      <c r="D107" t="s">
+        <v>109</v>
+      </c>
+      <c r="E107">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>400</v>
+      </c>
+      <c r="B108">
+        <v>592</v>
+      </c>
+      <c r="C108">
+        <v>399</v>
+      </c>
+      <c r="D108" t="s">
+        <v>110</v>
+      </c>
+      <c r="E108">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>404</v>
+      </c>
+      <c r="B109">
+        <v>800</v>
+      </c>
+      <c r="C109">
+        <v>484</v>
+      </c>
+      <c r="D109" t="s">
+        <v>111</v>
+      </c>
+      <c r="E109">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>400</v>
+      </c>
+      <c r="B110">
+        <v>155</v>
+      </c>
+      <c r="C110">
+        <v>81</v>
+      </c>
+      <c r="D110" t="s">
+        <v>112</v>
+      </c>
+      <c r="E110">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>400</v>
+      </c>
+      <c r="B111">
+        <v>236</v>
+      </c>
+      <c r="C111">
+        <v>130</v>
+      </c>
+      <c r="D111" t="s">
+        <v>113</v>
+      </c>
+      <c r="E111">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>404</v>
+      </c>
+      <c r="B112">
+        <v>800</v>
+      </c>
+      <c r="C112">
+        <v>666</v>
+      </c>
+      <c r="D112" t="s">
+        <v>114</v>
+      </c>
+      <c r="E112">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>404</v>
+      </c>
+      <c r="B113">
+        <v>800</v>
+      </c>
+      <c r="C113">
+        <v>544</v>
+      </c>
+      <c r="D113" t="s">
+        <v>115</v>
+      </c>
+      <c r="E113">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>400</v>
+      </c>
+      <c r="B114">
+        <v>390</v>
+      </c>
+      <c r="C114">
+        <v>225</v>
+      </c>
+      <c r="D114" t="s">
+        <v>116</v>
+      </c>
+      <c r="E114">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>404</v>
+      </c>
+      <c r="B115">
+        <v>800</v>
+      </c>
+      <c r="C115">
+        <v>517</v>
+      </c>
+      <c r="D115" t="s">
+        <v>117</v>
+      </c>
+      <c r="E115">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>400</v>
+      </c>
+      <c r="B116">
+        <v>251</v>
+      </c>
+      <c r="C116">
+        <v>108</v>
+      </c>
+      <c r="D116" t="s">
+        <v>118</v>
+      </c>
+      <c r="E116">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>400</v>
+      </c>
+      <c r="B117">
+        <v>142</v>
+      </c>
+      <c r="C117">
+        <v>125</v>
+      </c>
+      <c r="D117" t="s">
+        <v>119</v>
+      </c>
+      <c r="E117">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>400</v>
+      </c>
+      <c r="B118">
+        <v>228</v>
+      </c>
+      <c r="C118">
+        <v>177</v>
+      </c>
+      <c r="D118" t="s">
+        <v>120</v>
+      </c>
+      <c r="E118">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>400</v>
+      </c>
+      <c r="B119">
+        <v>318</v>
+      </c>
+      <c r="C119">
+        <v>265</v>
+      </c>
+      <c r="D119" t="s">
+        <v>121</v>
+      </c>
+      <c r="E119">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>400</v>
+      </c>
+      <c r="B120">
+        <v>288</v>
+      </c>
+      <c r="C120">
+        <v>169</v>
+      </c>
+      <c r="D120" t="s">
+        <v>122</v>
+      </c>
+      <c r="E120">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>400</v>
+      </c>
+      <c r="B121">
+        <v>422</v>
+      </c>
+      <c r="C121">
+        <v>349</v>
+      </c>
+      <c r="D121" t="s">
+        <v>123</v>
+      </c>
+      <c r="E121">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>400</v>
+      </c>
+      <c r="B122">
+        <v>260</v>
+      </c>
+      <c r="C122">
+        <v>181</v>
+      </c>
+      <c r="D122" t="s">
+        <v>124</v>
+      </c>
+      <c r="E122">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>400</v>
+      </c>
+      <c r="B123">
+        <v>235</v>
+      </c>
+      <c r="C123">
+        <v>159</v>
+      </c>
+      <c r="D123" t="s">
+        <v>125</v>
+      </c>
+      <c r="E123">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>400</v>
+      </c>
+      <c r="B124">
+        <v>138</v>
+      </c>
+      <c r="C124">
+        <v>69</v>
+      </c>
+      <c r="D124" t="s">
+        <v>126</v>
+      </c>
+      <c r="E124">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>404</v>
+      </c>
+      <c r="B125">
+        <v>800</v>
+      </c>
+      <c r="C125">
+        <v>623</v>
+      </c>
+      <c r="D125" t="s">
+        <v>127</v>
+      </c>
+      <c r="E125">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>400</v>
+      </c>
+      <c r="B126">
+        <v>184</v>
+      </c>
+      <c r="C126">
+        <v>151</v>
+      </c>
+      <c r="D126" t="s">
+        <v>128</v>
+      </c>
+      <c r="E126">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>400</v>
+      </c>
+      <c r="B127">
+        <v>321</v>
+      </c>
+      <c r="C127">
+        <v>188</v>
+      </c>
+      <c r="D127" t="s">
+        <v>129</v>
+      </c>
+      <c r="E127">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>400</v>
+      </c>
+      <c r="B128">
+        <v>100</v>
+      </c>
+      <c r="C128">
+        <v>58</v>
+      </c>
+      <c r="D128" t="s">
+        <v>130</v>
+      </c>
+      <c r="E128">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>400</v>
+      </c>
+      <c r="B129">
+        <v>269</v>
+      </c>
+      <c r="C129">
+        <v>252</v>
+      </c>
+      <c r="D129" t="s">
+        <v>131</v>
+      </c>
+      <c r="E129">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>400</v>
+      </c>
+      <c r="B130">
+        <v>54</v>
+      </c>
+      <c r="C130">
+        <v>42</v>
+      </c>
+      <c r="D130" t="s">
+        <v>132</v>
+      </c>
+      <c r="E130">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>404</v>
+      </c>
+      <c r="B131">
+        <v>800</v>
+      </c>
+      <c r="C131">
+        <v>430</v>
+      </c>
+      <c r="D131" t="s">
+        <v>133</v>
+      </c>
+      <c r="E131">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>400</v>
+      </c>
+      <c r="B132">
+        <v>330</v>
+      </c>
+      <c r="C132">
+        <v>272</v>
+      </c>
+      <c r="D132" t="s">
+        <v>134</v>
+      </c>
+      <c r="E132">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>404</v>
+      </c>
+      <c r="B133">
+        <v>800</v>
+      </c>
+      <c r="C133">
+        <v>575</v>
+      </c>
+      <c r="D133" t="s">
+        <v>135</v>
+      </c>
+      <c r="E133">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>400</v>
+      </c>
+      <c r="B134">
+        <v>231</v>
+      </c>
+      <c r="C134">
+        <v>212</v>
+      </c>
+      <c r="D134" t="s">
+        <v>136</v>
+      </c>
+      <c r="E134">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>400</v>
+      </c>
+      <c r="B135">
+        <v>315</v>
+      </c>
+      <c r="C135">
+        <v>266</v>
+      </c>
+      <c r="D135" t="s">
+        <v>137</v>
+      </c>
+      <c r="E135">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>400</v>
+      </c>
+      <c r="B136">
+        <v>354</v>
+      </c>
+      <c r="C136">
+        <v>291</v>
+      </c>
+      <c r="D136" t="s">
+        <v>138</v>
+      </c>
+      <c r="E136">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>400</v>
+      </c>
+      <c r="B137">
+        <v>165</v>
+      </c>
+      <c r="C137">
+        <v>150</v>
+      </c>
+      <c r="D137" t="s">
+        <v>139</v>
+      </c>
+      <c r="E137">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>400</v>
+      </c>
+      <c r="B138">
+        <v>186</v>
+      </c>
+      <c r="C138">
+        <v>161</v>
+      </c>
+      <c r="D138" t="s">
+        <v>140</v>
+      </c>
+      <c r="E138">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>400</v>
+      </c>
+      <c r="B139">
+        <v>296</v>
+      </c>
+      <c r="C139">
+        <v>292</v>
+      </c>
+      <c r="D139" t="s">
+        <v>141</v>
+      </c>
+      <c r="E139">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>400</v>
+      </c>
+      <c r="B140">
+        <v>420</v>
+      </c>
+      <c r="C140">
+        <v>383</v>
+      </c>
+      <c r="D140" t="s">
+        <v>142</v>
+      </c>
+      <c r="E140">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>400</v>
+      </c>
+      <c r="B141">
+        <v>426</v>
+      </c>
+      <c r="C141">
+        <v>301</v>
+      </c>
+      <c r="D141" t="s">
+        <v>143</v>
+      </c>
+      <c r="E141">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>400</v>
+      </c>
+      <c r="B142">
+        <v>111</v>
+      </c>
+      <c r="C142">
+        <v>107</v>
+      </c>
+      <c r="D142" t="s">
+        <v>144</v>
+      </c>
+      <c r="E142">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>400</v>
+      </c>
+      <c r="B143">
+        <v>529</v>
+      </c>
+      <c r="C143">
+        <v>527</v>
+      </c>
+      <c r="D143" t="s">
+        <v>145</v>
+      </c>
+      <c r="E143">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>400</v>
+      </c>
+      <c r="B144">
+        <v>108</v>
+      </c>
+      <c r="C144">
+        <v>99</v>
+      </c>
+      <c r="D144" t="s">
+        <v>146</v>
+      </c>
+      <c r="E144">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>400</v>
+      </c>
+      <c r="B145">
+        <v>233</v>
+      </c>
+      <c r="C145">
+        <v>219</v>
+      </c>
+      <c r="D145" t="s">
+        <v>147</v>
+      </c>
+      <c r="E145">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>400</v>
+      </c>
+      <c r="B146">
+        <v>336</v>
+      </c>
+      <c r="C146">
+        <v>321</v>
+      </c>
+      <c r="D146" t="s">
+        <v>148</v>
+      </c>
+      <c r="E146">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>400</v>
+      </c>
+      <c r="B147">
+        <v>56</v>
+      </c>
+      <c r="C147">
+        <v>55</v>
+      </c>
+      <c r="D147" t="s">
+        <v>149</v>
+      </c>
+      <c r="E147">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>400</v>
+      </c>
+      <c r="B148">
+        <v>24</v>
+      </c>
+      <c r="C148">
+        <v>17</v>
+      </c>
+      <c r="D148" t="s">
+        <v>150</v>
+      </c>
+      <c r="E148">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>400</v>
+      </c>
+      <c r="B149">
+        <v>628</v>
+      </c>
+      <c r="C149">
+        <v>617</v>
+      </c>
+      <c r="D149" t="s">
+        <v>151</v>
+      </c>
+      <c r="E149">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>400</v>
+      </c>
+      <c r="B150">
+        <v>369</v>
+      </c>
+      <c r="C150">
+        <v>341</v>
+      </c>
+      <c r="D150" t="s">
+        <v>152</v>
+      </c>
+      <c r="E150">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>400</v>
+      </c>
+      <c r="B151">
+        <v>596</v>
+      </c>
+      <c r="C151">
+        <v>533</v>
+      </c>
+      <c r="D151" t="s">
+        <v>153</v>
+      </c>
+      <c r="E151">
+        <v>74</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:E71" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:E151" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>